--- a/conf/xlsx/building.xlsx
+++ b/conf/xlsx/building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="8">
   <si>
     <t>int</t>
   </si>
@@ -49,12 +49,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,14 +70,14 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,6 +89,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -96,8 +104,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,15 +123,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,7 +142,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,14 +181,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,7 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,45 +216,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -234,187 +226,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +444,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -469,11 +496,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,186 +517,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -680,10 +672,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1036,38 +1028,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="15.75" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1083,10 +1075,10 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1203,6 +1195,121 @@
       </c>
       <c r="G7">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6000</v>
+      </c>
+      <c r="C8">
+        <v>6000</v>
+      </c>
+      <c r="D8">
+        <v>6000</v>
+      </c>
+      <c r="E8">
+        <v>6000</v>
+      </c>
+      <c r="F8">
+        <v>60000</v>
+      </c>
+      <c r="G8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7000</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+      <c r="D9">
+        <v>7000</v>
+      </c>
+      <c r="E9">
+        <v>7000</v>
+      </c>
+      <c r="F9">
+        <v>70000</v>
+      </c>
+      <c r="G9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8000</v>
+      </c>
+      <c r="C10">
+        <v>8000</v>
+      </c>
+      <c r="D10">
+        <v>8000</v>
+      </c>
+      <c r="E10">
+        <v>8000</v>
+      </c>
+      <c r="F10">
+        <v>80000</v>
+      </c>
+      <c r="G10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9000</v>
+      </c>
+      <c r="C11">
+        <v>9000</v>
+      </c>
+      <c r="D11">
+        <v>9000</v>
+      </c>
+      <c r="E11">
+        <v>9000</v>
+      </c>
+      <c r="F11">
+        <v>90000</v>
+      </c>
+      <c r="G11">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12">
+        <v>100000</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1215,36 +1322,38 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1260,12 +1369,14 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1284,8 +1395,11 @@
       <c r="F3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1304,8 +1418,11 @@
       <c r="F4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1324,8 +1441,11 @@
       <c r="F5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1344,8 +1464,11 @@
       <c r="F6">
         <v>40000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1363,6 +1486,124 @@
       </c>
       <c r="F7">
         <v>50000</v>
+      </c>
+      <c r="G7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6000</v>
+      </c>
+      <c r="C8">
+        <v>6000</v>
+      </c>
+      <c r="D8">
+        <v>6000</v>
+      </c>
+      <c r="E8">
+        <v>6000</v>
+      </c>
+      <c r="F8">
+        <v>60000</v>
+      </c>
+      <c r="G8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7000</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+      <c r="D9">
+        <v>7000</v>
+      </c>
+      <c r="E9">
+        <v>7000</v>
+      </c>
+      <c r="F9">
+        <v>70000</v>
+      </c>
+      <c r="G9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8000</v>
+      </c>
+      <c r="C10">
+        <v>8000</v>
+      </c>
+      <c r="D10">
+        <v>8000</v>
+      </c>
+      <c r="E10">
+        <v>8000</v>
+      </c>
+      <c r="F10">
+        <v>80000</v>
+      </c>
+      <c r="G10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9000</v>
+      </c>
+      <c r="C11">
+        <v>9000</v>
+      </c>
+      <c r="D11">
+        <v>9000</v>
+      </c>
+      <c r="E11">
+        <v>9000</v>
+      </c>
+      <c r="F11">
+        <v>90000</v>
+      </c>
+      <c r="G11">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12">
+        <v>100000</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1375,36 +1616,38 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1420,12 +1663,14 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1444,8 +1689,11 @@
       <c r="F3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1464,8 +1712,11 @@
       <c r="F4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1484,8 +1735,11 @@
       <c r="F5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1504,8 +1758,11 @@
       <c r="F6">
         <v>40000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1523,6 +1780,124 @@
       </c>
       <c r="F7">
         <v>50000</v>
+      </c>
+      <c r="G7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6000</v>
+      </c>
+      <c r="C8">
+        <v>6000</v>
+      </c>
+      <c r="D8">
+        <v>6000</v>
+      </c>
+      <c r="E8">
+        <v>6000</v>
+      </c>
+      <c r="F8">
+        <v>60000</v>
+      </c>
+      <c r="G8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7000</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+      <c r="D9">
+        <v>7000</v>
+      </c>
+      <c r="E9">
+        <v>7000</v>
+      </c>
+      <c r="F9">
+        <v>70000</v>
+      </c>
+      <c r="G9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8000</v>
+      </c>
+      <c r="C10">
+        <v>8000</v>
+      </c>
+      <c r="D10">
+        <v>8000</v>
+      </c>
+      <c r="E10">
+        <v>8000</v>
+      </c>
+      <c r="F10">
+        <v>80000</v>
+      </c>
+      <c r="G10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9000</v>
+      </c>
+      <c r="C11">
+        <v>9000</v>
+      </c>
+      <c r="D11">
+        <v>9000</v>
+      </c>
+      <c r="E11">
+        <v>9000</v>
+      </c>
+      <c r="F11">
+        <v>90000</v>
+      </c>
+      <c r="G11">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12">
+        <v>100000</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1535,36 +1910,38 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1580,12 +1957,14 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1604,8 +1983,11 @@
       <c r="F3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1624,8 +2006,11 @@
       <c r="F4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1644,8 +2029,11 @@
       <c r="F5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1664,8 +2052,11 @@
       <c r="F6">
         <v>40000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1683,6 +2074,124 @@
       </c>
       <c r="F7">
         <v>50000</v>
+      </c>
+      <c r="G7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6000</v>
+      </c>
+      <c r="C8">
+        <v>6000</v>
+      </c>
+      <c r="D8">
+        <v>6000</v>
+      </c>
+      <c r="E8">
+        <v>6000</v>
+      </c>
+      <c r="F8">
+        <v>60000</v>
+      </c>
+      <c r="G8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7000</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+      <c r="D9">
+        <v>7000</v>
+      </c>
+      <c r="E9">
+        <v>7000</v>
+      </c>
+      <c r="F9">
+        <v>70000</v>
+      </c>
+      <c r="G9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8000</v>
+      </c>
+      <c r="C10">
+        <v>8000</v>
+      </c>
+      <c r="D10">
+        <v>8000</v>
+      </c>
+      <c r="E10">
+        <v>8000</v>
+      </c>
+      <c r="F10">
+        <v>80000</v>
+      </c>
+      <c r="G10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9000</v>
+      </c>
+      <c r="C11">
+        <v>9000</v>
+      </c>
+      <c r="D11">
+        <v>9000</v>
+      </c>
+      <c r="E11">
+        <v>9000</v>
+      </c>
+      <c r="F11">
+        <v>90000</v>
+      </c>
+      <c r="G11">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12">
+        <v>100000</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1694,36 +2203,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1739,12 +2250,14 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1763,8 +2276,11 @@
       <c r="F3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1783,8 +2299,11 @@
       <c r="F4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1803,8 +2322,11 @@
       <c r="F5">
         <v>30000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1823,8 +2345,11 @@
       <c r="F6">
         <v>40000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1842,6 +2367,124 @@
       </c>
       <c r="F7">
         <v>50000</v>
+      </c>
+      <c r="G7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6000</v>
+      </c>
+      <c r="C8">
+        <v>6000</v>
+      </c>
+      <c r="D8">
+        <v>6000</v>
+      </c>
+      <c r="E8">
+        <v>6000</v>
+      </c>
+      <c r="F8">
+        <v>60000</v>
+      </c>
+      <c r="G8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7000</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+      <c r="D9">
+        <v>7000</v>
+      </c>
+      <c r="E9">
+        <v>7000</v>
+      </c>
+      <c r="F9">
+        <v>70000</v>
+      </c>
+      <c r="G9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8000</v>
+      </c>
+      <c r="C10">
+        <v>8000</v>
+      </c>
+      <c r="D10">
+        <v>8000</v>
+      </c>
+      <c r="E10">
+        <v>8000</v>
+      </c>
+      <c r="F10">
+        <v>80000</v>
+      </c>
+      <c r="G10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9000</v>
+      </c>
+      <c r="C11">
+        <v>9000</v>
+      </c>
+      <c r="D11">
+        <v>9000</v>
+      </c>
+      <c r="E11">
+        <v>9000</v>
+      </c>
+      <c r="F11">
+        <v>90000</v>
+      </c>
+      <c r="G11">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12">
+        <v>100000</v>
+      </c>
+      <c r="G12">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/conf/xlsx/building.xlsx
+++ b/conf/xlsx/building.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -73,26 +73,32 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,16 +118,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +132,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -141,16 +147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,31 +163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,13 +193,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -226,187 +226,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,26 +420,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,32 +440,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +461,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -503,17 +488,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,9 +1034,9 @@
       <selection activeCell="K29" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1328,9 +1328,9 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1622,9 +1622,9 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1916,9 +1916,9 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2206,12 +2206,12 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>

--- a/conf/xlsx/building.xlsx
+++ b/conf/xlsx/building.xlsx
@@ -87,26 +87,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,37 +119,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,14 +142,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,22 +216,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -226,187 +226,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,41 +420,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,11 +449,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,17 +494,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,145 +525,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2206,10 +2206,16 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
+    <col min="3" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="14.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="14.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
